--- a/DOM_Banner/output/dept_banner/Tushar Acharya_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Tushar Acharya_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Surgery, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Surgery, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Artificial Heart Program, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Cardiovascular Diseases, Spectrum Health, Grand Rapids, MI, United States; Division of Cardiology, Carondelet Medical Center, Tucson, AZ, United States; Division of Cardiology, Carondelet Medical Center, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321596045</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Aortic valve disorders and left ventricular assist devices</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Frontiers in Cardiovascular Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcvm.2023.1098348</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36910539</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcvm.2023.1098348</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; Department of Medicine, University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine - Tucson, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384938645</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Steroid-Responsive Fulminant Lymphocytic Myocarditis Mimicking Giant-Cell Myocarditis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.07.005</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37481023</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.07.005</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Division of Pulmonary, Critical Care and Sleep Medicine, University of Oklahoma Health Sciences Center, Oklahoma City (R.J.B.).; Division of Cardiovascular Medicine, The Ohio State University, Columbus (R.R.V.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular and Respiratory Science, Sapienza University of Rome, Italy (R.B.).; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Department of Pathophysiology, Free University of Brussels, Belgium (R.N.).; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Lerner Research Institute (S.C.E.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (R.P.F.).; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD (P.M.H.).; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, TN (A.R.H.).; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, MA (N.S.H.).; Division of Cardiology, Perkin Heart Failure Center, Weill Cornell Medicine, New York, NY (E.M.H.).; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA (J.A.L.).; Department of Pediatrics and Medicine, Columbia University, Vegelos College of Physicians and Surgeons, New York, NY (E.B.R.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular and Metabolic Sciences (J.D.W.), Cleveland Clinic, Cleveland, OH.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386407374</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Circulation: Heart Failure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37664964</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> University of Arizona;; Division of Pulmonary, Critical Care and Sleep Medicine, University of Oklahoma Health Sciences Center, Oklahoma City, OK;  The Ohio State University;;  Cleveland Clinic, Cleveland, OH;;  University of Arizona;;  Cleveland Clinic Foundation;;  University of Arizona;;  University of Arizona;;  University of Arizona;;  Sapienza University of Rome;;  Cleveland Clinic Foundation, Cleveland;;  Free University of Brussels;;  University of Arizona;;  Cleveland Clinic Foundation;; Lerner Research Institute, Cleveland Clinic; Department of Cardiovascular Medicine, Mayo Clinic;  Johns Hopkins University;; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School; Department of Pediatrics and Medicine, Columbia University, Vegelos College of Physicians and Surgeons;  Cleveland Clinic;;  Cleveland Clinic Foundation;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321018683</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.15.23285974</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36824981</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.15.23285974</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pooja S. Jagadish, Arturo Hernández, Brendan Andres, Tushar Acharya, Elizabeth Juneman, Deepak Acharya</t>
+          <t>Ramzi Ibrahim, Jonathan Ferng, Madhan Shanmugasundaram, Deepak Acharya, Tushar Acharya, Javier Pineda, Kwan S. Lee</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323034199</t>
+          <t>University of Arizona-Tucson, Tucson, AZ, USA; University of Arizona-Tucson, Tucson, AZ, USA; University of Arizona-Tucson, Tucson, AZ, USA; University of Arizona-Tucson, Tucson, AZ, USA; University of Arizona-Tucson, Tucson, AZ, USA; University of Arizona-Tucson, Tucson, AZ, USA; University of Arizona-Tucson, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>STEROID-RESPONSIVE FULMINANT LYMPHOCYTIC MYOCARDITIS MIMICKING GIANT-CELL MYOCARDITIS</t>
+          <t>https://openalex.org/W4323039493</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>A CASE OF PERICARDIAL RUB TINNITUS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03098-x</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03199-6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03098-x</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03199-6</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ramzi Ibrahim, Jonathan Ferng, Madhan Shanmugasundaram, Deepak Acharya, Tushar Acharya, Javier Pineda, Kwan S. Lee</t>
+          <t>Ru‐San Tan, Deborah Kwon, Tushar Acharya, Margaret M. Park, Rebecca Vanderpool, Austin Katrynuik, Gerald J. Beck, Robert Frantz, PAUL M HASSOUN, ANNA R HEMNES, NICHOLAS S HILL, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, STEPHEN C MATHAI, Stefan L. Zimmerman, Bharath Ambale Venkatesh, Jiwon Kim, Michael P. DiLorenzo, Raymond Y. Kwong, Christopher J. François, EVAN BRITTAIN, Franz Rischard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323039493</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A CASE OF PERICARDIAL RUB TINNITUS</t>
+          <t>https://openalex.org/W4387266294</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>RIGHT VENTRICULAR VOLUME INTER-READER VARIABILITY INCREASES WITH VENTRICULAR DILATION: RESULTS FROM THE PVDOMICS STUDY</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03199-6</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03199-6</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ru‐San Tan, Deborah Kwon, Tushar Acharya, Margaret M. Park, Rebecca Vanderpool, Austin Katrynuik, Gerald J. Beck, Robert Frantz, PAUL M HASSOUN, ANNA R HEMNES, NICHOLAS S HILL, Evelyn M. Horn, Jane A. Leopold, Erika B. Rosenzweig, W.H. Wilson Tang, STEPHEN C MATHAI, Stefan L. Zimmerman, Bharath Ambale Venkatesh, Jiwon Kim, Michael P. DiLorenzo, Raymond Y. Kwong, Christopher J. François, EVAN BRITTAIN, Franz Rischard</t>
+          <t>Amie Kolimas, Joshua K Beverly, Muhammad Kashif, Tushar Acharya, Adarsh S. Vangala, Michel Corban</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387266294</t>
+          <t>Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Cardiology, Banner Univ Med Cntr, Tucson, AZ; Cardiology, Banner Univ Med Cntr, Tucson, AZ; Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Cardiology, Banner Univ Med Cntr, Tucson, AZ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RIGHT VENTRICULAR VOLUME INTER-READER VARIABILITY INCREASES WITH VENTRICULAR DILATION: RESULTS FROM THE PVDOMICS STUDY</t>
+          <t>https://openalex.org/W4389952843</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Abstract 18714: Myocardial Infarction With Non-Obstructive Coronary Artery Disease in a Young Woman - The Cardinal Role of Coronary Reactivity Testing in Unveiling the Underlying Etiology</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Circulation</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1161/circ.148.suppl_1.18714</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3810</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1161/circ.148.suppl_1.18714</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amie Kolimas, Joshua K Beverly, Muhammad Kashif, Tushar Acharya, Adarsh S. Vangala, Michel Corban</t>
+          <t>Pooja S. Jagadish, Arturo Hernández, Brendan Andres, Tushar Acharya, Elizabeth Juneman, Deepak Acharya</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389952843</t>
+          <t>University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; University of Arizona College of Medicine-Tucson, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Abstract 18714: Myocardial Infarction With Non-Obstructive Coronary Artery Disease in a Young Woman - The Cardinal Role of Coronary Reactivity Testing in Unveiling the Underlying Etiology</t>
+          <t>https://openalex.org/W4323034199</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>STEROID-RESPONSIVE FULMINANT LYMPHOCYTIC MYOCARDITIS MIMICKING GIANT-CELL MYOCARDITIS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Circulation</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circ.148.suppl_1.18714</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03098-x</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1161/circ.148.suppl_1.18714</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03098-x</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
